--- a/Шаблон3.xlsx
+++ b/Шаблон3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\VisualStudio\Specification_Ver2\Specification_Ver2\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudio\source\Specification_Ver2\Specification_Ver2\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26963C-2192-4EBA-B9E4-82B0D0F1BF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F15DBA-EFFE-42D1-8631-B031D3205EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -180,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -203,12 +203,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -235,12 +263,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -250,2678 +272,36 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{5A2C5D91-901C-427C-83DA-04E4E272BAB2}"/>
   </cellStyles>
-  <dxfs count="236">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="82">
     <dxf>
       <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
+        <top style="double">
           <color indexed="64"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <font>
@@ -2956,12 +336,907 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <top style="double">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Стиль сводной таблицы 1" table="0" count="3" xr9:uid="{A171F048-ED95-4D32-8F0C-78263D744A5E}">
-      <tableStyleElement type="firstRowSubheading" dxfId="235"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="234"/>
-      <tableStyleElement type="thirdRowSubheading" dxfId="233"/>
+    <tableStyle name="Стиль сводной таблицы 1" table="0" count="4" xr9:uid="{A171F048-ED95-4D32-8F0C-78263D744A5E}">
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="thirdRowSubheading" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3277,7 +1552,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09FBF364-3E74-4890-8B35-34A9D527A5A6}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Наименование объекта">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09FBF364-3E74-4890-8B35-34A9D527A5A6}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Наименование объекта">
   <location ref="A2:D6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3582,11 +1857,11 @@
     <dataField name="Неопрашиваемых приборов учёта" fld="6" baseField="1" baseItem="0"/>
     <dataField name="Процент неопроса" fld="7" subtotal="average" baseField="2" baseItem="13" numFmtId="9"/>
   </dataFields>
-  <formats count="77">
-    <format dxfId="154">
+  <formats count="78">
+    <format dxfId="81">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -3597,10 +1872,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="79">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="157">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -3611,10 +1886,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="158">
+    <format dxfId="77">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -3625,10 +1900,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="160">
+    <format dxfId="75">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="161">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -3639,7 +1914,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="162">
+    <format dxfId="73">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3648,7 +1923,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="163">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3657,7 +1932,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="164">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3666,7 +1941,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="165">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3675,7 +1950,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="166">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3684,14 +1959,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="167">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="168">
+    <format dxfId="67">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -3707,33 +1982,33 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="169">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="170">
+    <format dxfId="65">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="64">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="63">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3747,7 +2022,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="176">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3757,7 +2032,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="177">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3771,7 +2046,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="178">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -3786,7 +2061,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="179">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3818,7 +2093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="180">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3841,7 +2116,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="181">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3870,7 +2145,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3896,7 +2171,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="183">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3942,7 +2217,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="184">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -3985,7 +2260,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="185">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4010,7 +2285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="186">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4047,7 +2322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="187">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4070,7 +2345,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="188">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4091,7 +2366,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="189">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4117,7 +2392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="190">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4163,7 +2438,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="191">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4190,7 +2465,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="192">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4218,7 +2493,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="193">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4247,7 +2522,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="194">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4258,10 +2533,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="195">
+    <format dxfId="40">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -4271,7 +2546,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="197">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4280,40 +2555,40 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="198">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="199">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="200">
+    <format dxfId="35">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="33">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="203">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="204">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4327,7 +2602,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="206">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4337,7 +2612,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="207">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4351,7 +2626,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -4366,7 +2641,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4398,7 +2673,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="210">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4421,7 +2696,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="211">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4450,7 +2725,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="212">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4476,7 +2751,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4522,7 +2797,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="214">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4565,7 +2840,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="215">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4590,7 +2865,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4627,7 +2902,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="217">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4650,7 +2925,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="218">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4671,7 +2946,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="219">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4697,7 +2972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="220">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4743,7 +3018,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4770,7 +3045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="222">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4798,7 +3073,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="223">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="1" count="1" selected="0">
@@ -4827,7 +3102,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="224">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4838,7 +3113,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="225">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="2" selected="0">
@@ -4854,24 +3129,24 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="226">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="227">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
+    <format dxfId="7">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="229">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4882,7 +3157,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="230">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4890,6 +3165,9 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="Стиль сводной таблицы 1" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -5167,18 +3445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4AD1A5-33BF-4BEF-83FF-AC9105DBB2BC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -5190,21 +3471,21 @@
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="10">
@@ -5218,7 +3499,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="10">
@@ -5231,31 +3512,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="16">
         <v>0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="16">
         <v>0</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="19">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="19">
         <v>0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="20">
         <v>0</v>
       </c>
     </row>
@@ -6606,7 +4887,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.11811023622047245" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,обычный"
 Приложение №3</oddHeader>
